--- a/source_analyses/dk/2015/7_services/7_services_source_analysis_dk.xlsx
+++ b/source_analyses/dk/2015/7_services/7_services_source_analysis_dk.xlsx
@@ -1,25 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martlubben/Projects/etdataset/source_analyses/dk/2015/7_services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33362A59-A362-AA41-B6D8-3EAC4227E4B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601E659-D7A7-E14F-98ED-2EAA5531DD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-3160" windowWidth="19200" windowHeight="20080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48000" yWindow="-3160" windowWidth="19200" windowHeight="21160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fuel aggregation" sheetId="2" r:id="rId1"/>
+    <sheet name="Dashboard inputs" sheetId="8" r:id="rId1"/>
     <sheet name="Electricity" sheetId="1" r:id="rId2"/>
     <sheet name="Lighting_technology_split" sheetId="3" r:id="rId3"/>
-    <sheet name="space_heating_and_cooling" sheetId="4" r:id="rId4"/>
+    <sheet name="ICT" sheetId="5" r:id="rId4"/>
+    <sheet name="HRE, 2015" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Eff_cooling_airco">[2]technical_specs!$L$25</definedName>
+    <definedName name="Eff_cooling_pump">[2]technical_specs!$L$23</definedName>
+    <definedName name="Eff_cooling_pump_storage">[2]technical_specs!$L$24</definedName>
+    <definedName name="Eff_lighting_lamp_fluorescent">[2]technical_specs!$L$29</definedName>
+    <definedName name="Eff_lighting_lamp_incandescent">[2]technical_specs!$L$28</definedName>
+    <definedName name="Eff_lighting_led">[2]technical_specs!$L$32</definedName>
+    <definedName name="Eff_lighting_tube_fluorescent_efficient">[2]technical_specs!$L$31</definedName>
+    <definedName name="Eff_lighting_tube_fluorescent_standartd">[2]technical_specs!$L$30</definedName>
+    <definedName name="Eff_space_heating_coal">[2]technical_specs!$L$15</definedName>
+    <definedName name="Eff_space_heating_district">[2]technical_specs!$L$20</definedName>
+    <definedName name="Eff_space_heating_electric">[2]technical_specs!$L$14</definedName>
+    <definedName name="Eff_space_heating_gas">[2]technical_specs!$L$11</definedName>
+    <definedName name="Eff_space_heating_oil">[2]technical_specs!$L$16</definedName>
+    <definedName name="Eff_space_heating_pump_gas">[2]technical_specs!$L$13</definedName>
+    <definedName name="Eff_space_heating_pump_storage">[2]technical_specs!$L$12</definedName>
+    <definedName name="Eff_space_heating_solar_thermal">[2]technical_specs!$L$18</definedName>
+    <definedName name="Eff_space_heating_woodpellets">[2]technical_specs!$L$19</definedName>
+    <definedName name="Final_demand_lighting">[2]Dashboard!$E$25</definedName>
+    <definedName name="Final_demand_residences">'[2]Fuel aggregation'!$L$11</definedName>
+    <definedName name="Final_demand_space_cooling">[2]Dashboard!$E$24</definedName>
+    <definedName name="Final_demand_space_heating">[2]Dashboard!$E$23</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -87,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
   <si>
     <t>Cooling</t>
   </si>
@@ -140,9 +173,6 @@
     <t>Table 3: Final demand per application</t>
   </si>
   <si>
-    <t>Table 1: Fuel aggregation, taken from the Services Analysis with EU 2011 data</t>
-  </si>
-  <si>
     <t>Table 4: Technology split in space heating</t>
   </si>
   <si>
@@ -203,12 +233,6 @@
     <t>% of electricity by application</t>
   </si>
   <si>
-    <t>All the reamaining electricity is used by appliances</t>
-  </si>
-  <si>
-    <t>All energy is electricty because is is assumed that all cooling demand is delvered by electricity</t>
-  </si>
-  <si>
     <t>Final electricity demand lighting in services</t>
   </si>
   <si>
@@ -236,33 +260,253 @@
     <t>Dutch split</t>
   </si>
   <si>
-    <t>Gas-fired heaters</t>
-  </si>
-  <si>
     <t>Electric heat pumps with thermal storage</t>
   </si>
   <si>
     <t>Gas-fired heat pumps</t>
   </si>
   <si>
-    <t>Electric heaters</t>
-  </si>
-  <si>
-    <t>Coal-fired heaters</t>
-  </si>
-  <si>
-    <t>Oil-fired heaters</t>
+    <t>Final electricity demand used for central ICT</t>
+  </si>
+  <si>
+    <t>heat pump</t>
+  </si>
+  <si>
+    <t>electric heater</t>
+  </si>
+  <si>
+    <t>Space coolig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of useful cold delivered by </t>
+  </si>
+  <si>
+    <t>Airconditioning</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Nice to have</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Electric Heating</t>
+  </si>
+  <si>
+    <t>Micro CHP (natural gas)</t>
+  </si>
+  <si>
+    <t>Micro CHP (biomass)</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Heat pumps total (electric)</t>
+  </si>
+  <si>
+    <t>Heat pumps aireal (electric)</t>
+  </si>
+  <si>
+    <t>Heat pumps ground source (electric)</t>
+  </si>
+  <si>
+    <t>Others (RES)</t>
+  </si>
+  <si>
+    <t>Others (fossil)</t>
+  </si>
+  <si>
+    <t>Services heating and cooling profile</t>
+  </si>
+  <si>
+    <t>Data characteristics</t>
+  </si>
+  <si>
+    <t>Total H/C</t>
+  </si>
+  <si>
+    <t>Final energy demand ("energy input to heating/cooling system")</t>
+  </si>
+  <si>
+    <t>Average efficiency</t>
+  </si>
+  <si>
+    <t>Delivered energy demand ("heat produced by system")</t>
+  </si>
+  <si>
+    <t>Delivered energy demand ("cold produced by system")</t>
+  </si>
+  <si>
+    <t>Aggregation code</t>
+  </si>
+  <si>
+    <t>Services code</t>
+  </si>
+  <si>
+    <t>ID scenario</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>ID country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country group</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Sub-sector</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>ID energy carrier</t>
+  </si>
+  <si>
+    <t>Energy carrier / technology</t>
+  </si>
+  <si>
+    <t>Total H/C [TWh]</t>
+  </si>
+  <si>
+    <t>Total Heat FE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Hot Water FE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Space heating FE  [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Process heating FE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Average efficiency (Heating) [%]</t>
+  </si>
+  <si>
+    <t>Total Heat DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Hot Water DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Space heating DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Process heating DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Total Cool FE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Space cooling FE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Process cooling FE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Average efficiency (Cooling) [%]</t>
+  </si>
+  <si>
+    <t>Total Cool DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Space cooling DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Process cooling DE [TWH/yr]</t>
+  </si>
+  <si>
+    <t>Total electric</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>HRE, 2015</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>All the remaining electricity is used by appliances</t>
+  </si>
+  <si>
+    <t>Table 1: Fuel aggregation, taken from the DK 2015 service analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ec.europa.eu/energy/en/eu-buildings-database </t>
+  </si>
+  <si>
+    <t>Space Heating + hot water</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>JA publishing television and radio braodcasting</t>
+  </si>
+  <si>
+    <t>IT and information services</t>
+  </si>
+  <si>
+    <t>Telecommmuication</t>
+  </si>
+  <si>
+    <t>J information and communiction</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startbank reports quite some double results, the expert guess is made that J information and commuications is the sum of Telecommunication, radio, and IT and information service activities. </t>
+  </si>
+  <si>
+    <t>Source: http://www.statbank.dk/statbank5a/default.asp?w=1440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,8 +566,73 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +645,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -389,8 +770,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,8 +962,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,12 +1016,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -529,14 +1026,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="69" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,8 +1033,129 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="69" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="70"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="72">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -614,8 +1224,10 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="69" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="71" xr:uid="{309E8385-243C-8348-817F-08D36FE7AFF4}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -648,15 +1260,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>644478</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18956</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>94777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>26348</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>234856</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>107477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -680,7 +1292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8927911" y="303284"/>
+          <a:off x="9799852" y="94777"/>
           <a:ext cx="9390228" cy="2723297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -779,6 +1391,322 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>751200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58427985-8DF6-C144-8B84-8314664C6D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="0"/>
+          <a:ext cx="8904600" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E8BE31-19BA-C54D-90D9-D587BC6A40A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4154715" y="2086428"/>
+          <a:ext cx="419100" cy="920910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Table of content"/>
+      <sheetName val="Background information"/>
+      <sheetName val="Aggregation data"/>
+      <sheetName val="Aggregation analysis"/>
+      <sheetName val="Residential data"/>
+      <sheetName val="Residential analysis"/>
+      <sheetName val="Tertiary data"/>
+      <sheetName val="Tertiary_analysis"/>
+      <sheetName val="Industry data"/>
+      <sheetName val="Industry analysis"/>
+      <sheetName val="HRE4 Exchange Template WP3_v22b"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover Sheet"/>
+      <sheetName val="Changelog"/>
+      <sheetName val="Contents"/>
+      <sheetName val="Introduction"/>
+      <sheetName val="Dataflow"/>
+      <sheetName val="Assumptions"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Corrected energy balance step 2"/>
+      <sheetName val="technical_specs"/>
+      <sheetName val="Application shares"/>
+      <sheetName val="Technology shares"/>
+      <sheetName val="Final demand per energy carrier"/>
+      <sheetName val="Technology split final demand"/>
+      <sheetName val="Final demand extracted from EB"/>
+      <sheetName val="Fuel aggregation"/>
+      <sheetName val="Tech split of useful demand"/>
+      <sheetName val="csv_ps_final_demand_lighting"/>
+      <sheetName val="csv_ps_space_heating_electricit"/>
+      <sheetName val="csv_ps_cooling_electricity"/>
+      <sheetName val="csv_ps_space_heating_gas"/>
+      <sheetName val="csv_ps_final_demand_coal"/>
+      <sheetName val="csv_ps_final_demand_gas"/>
+      <sheetName val="csv_ps_final_demand_oil"/>
+      <sheetName val="csv_ps_final_demand_electricity"/>
+      <sheetName val="csv_ps_final_demand_wood_p"/>
+      <sheetName val="csv_heating_useful_insulation"/>
+      <sheetName val="csv_cooling_useful_insulation"/>
+      <sheetName val="csv_light_saving_detection"/>
+      <sheetName val="csv_light_saving_control"/>
+      <sheetName val="csv_ps_sector_electricity"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="23">
+          <cell r="E23">
+            <v>42737</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>265.74634654228379</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>7536.24</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8">
+        <row r="11">
+          <cell r="L11">
+            <v>1.0669999999999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="L12">
+            <v>9.0000000000000089</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="L13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="L14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="L15">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="L16">
+            <v>0.85</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="L18">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="L19">
+            <v>0.82</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="L20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="L23">
+            <v>1.7000000000000002</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>19.085416668359304</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="L29">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="L31">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="L32">
+            <v>0.45</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14">
+        <row r="11">
+          <cell r="L11">
+            <v>79626.426699999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,17 +2030,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A98519-85AB-8345-A84C-C8B5AC2C2179}">
+  <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A9" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
@@ -1120,17 +2048,17 @@
     <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="21">
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17">
       <c r="B6" s="7"/>
       <c r="C6" s="15" t="s">
         <v>5</v>
@@ -1157,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="34">
       <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
@@ -1186,12 +2114,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="17">
       <c r="B12" s="7"/>
       <c r="C12" s="15" t="s">
         <v>5</v>
@@ -1218,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1239,14 +2167,14 @@
       </c>
       <c r="H13" s="16">
         <f>Electricity!I8</f>
-        <v>3.4378147580468581E-2</v>
+        <v>3.6128791901803479E-2</v>
       </c>
       <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1257,12 +2185,12 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16">
         <f>Electricity!I7</f>
-        <v>3.4378147580468581E-2</v>
+        <v>7.2735479128061033E-3</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +2206,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1293,19 +2221,19 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f>Electricity!I10</f>
-        <v>0.7249748193562513</v>
+        <v>0.75032877470257897</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="17">
       <c r="B20" s="7"/>
       <c r="C20" s="15" t="s">
         <v>5</v>
@@ -1335,196 +2263,196 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" ref="C21:J24" si="0">C13*C$7</f>
+        <f>C13*C$7</f>
         <v>0</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" si="0"/>
+        <f>D13*D$7</f>
         <v>6524.1</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" si="0"/>
+        <f>E13*E$7</f>
         <v>2360.7000000000003</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" si="0"/>
+        <f>F13*F$7</f>
         <v>1249</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="0"/>
+        <f>G13*G$7</f>
         <v>87</v>
       </c>
       <c r="H21" s="19">
         <f>H13*H$7</f>
-        <v>1256.04</v>
+        <v>1320.0015409242919</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="0"/>
+        <f>I13*I$7</f>
         <v>31432</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
+        <f>J13*J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="34">
         <f>SUM(C21:J21)</f>
-        <v>42908.84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+        <v>42972.801540924294</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="19">
-        <f t="shared" si="0"/>
+        <f>C14*C$7</f>
         <v>0</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" si="0"/>
+        <f>D14*D$7</f>
         <v>0</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" si="0"/>
+        <f>E14*E$7</f>
         <v>0</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="0"/>
+        <f>F14*F$7</f>
         <v>0</v>
       </c>
       <c r="G22" s="19">
-        <f t="shared" si="0"/>
+        <f>G14*G$7</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
         <f>H14*H$7</f>
-        <v>1256.04</v>
+        <v>265.74634654228379</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="0"/>
+        <f>I14*I$7</f>
         <v>0</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="22">
+        <f>J14*J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="34">
         <f>SUM(C22:J22)</f>
-        <v>1256.04</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+        <v>265.74634654228379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="19">
-        <f t="shared" si="0"/>
+        <f>C15*C$7</f>
         <v>0</v>
       </c>
       <c r="D23" s="19">
-        <f t="shared" si="0"/>
+        <f>D15*D$7</f>
         <v>0</v>
       </c>
       <c r="E23" s="19">
-        <f t="shared" si="0"/>
+        <f>E15*E$7</f>
         <v>0</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="0"/>
+        <f>F15*F$7</f>
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f t="shared" si="0"/>
+        <f>G15*G$7</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="0"/>
+        <f>H15*H$7</f>
         <v>7536.24</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" si="0"/>
+        <f>I15*I$7</f>
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="22">
+        <f>J15*J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
         <f>SUM(C23:J23)</f>
         <v>7536.24</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="20">
-        <f t="shared" si="0"/>
+        <f>C16*C$7</f>
         <v>0</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" si="0"/>
+        <f>D16*D$7</f>
         <v>724.90000000000009</v>
       </c>
       <c r="E24" s="20">
-        <f t="shared" si="0"/>
+        <f>E16*E$7</f>
         <v>262.3</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" si="0"/>
+        <f>F16*F$7</f>
         <v>0</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="0"/>
+        <f>G16*G$7</f>
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="0"/>
-        <v>26487.679999999997</v>
+        <f>H16*H$7</f>
+        <v>27414.012112533426</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="0"/>
+        <f>I16*I$7</f>
         <v>0</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" si="0"/>
+        <f>J16*J$7</f>
         <v>450</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="34">
         <f>SUM(C24:J24)</f>
-        <v>27924.879999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+        <v>28851.212112533427</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="51">
       <c r="B28" s="7"/>
       <c r="C28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>24</v>
       </c>
       <c r="C29" s="19">
         <f>G21</f>
@@ -1538,14 +2466,14 @@
         <v>82.649999999999991</v>
       </c>
       <c r="F29" s="21">
-        <f>E29/SUM($E$29:$E$36)</f>
-        <v>1.9327600744347177E-3</v>
+        <f>E29/SUM($E$29:$E$38)</f>
+        <v>1.9298734994193589E-3</v>
       </c>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="19">
         <f>F21</f>
@@ -1555,18 +2483,18 @@
         <v>0.82</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" ref="E30:E36" si="1">C30*D30</f>
+        <f>C30*D30</f>
         <v>1024.1799999999998</v>
       </c>
       <c r="F30" s="21">
-        <f>E30/SUM($E$29:$E$36)</f>
-        <v>2.3950323206709607E-2</v>
+        <f>E30/SUM($E$29:$E$38)</f>
+        <v>2.3914553425714684E-2</v>
       </c>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="19">
         <f>I21</f>
@@ -1576,23 +2504,23 @@
         <v>1</v>
       </c>
       <c r="E31" s="19">
-        <f t="shared" si="1"/>
+        <f>C31*D31</f>
         <v>31432</v>
       </c>
       <c r="F31" s="21">
-        <f>E31/SUM($E$29:$E$36)</f>
-        <v>0.73503345020728439</v>
+        <f>E31/SUM($E$29:$E$38)</f>
+        <v>0.73393567856925945</v>
       </c>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="C32" s="19"/>
       <c r="D32" s="11"/>
       <c r="E32" s="19"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -1604,89 +2532,162 @@
         <v>1.0669999999999999</v>
       </c>
       <c r="E33" s="19">
-        <f t="shared" si="1"/>
+        <f>C33*D33</f>
         <v>6961.2147000000004</v>
       </c>
       <c r="F33" s="21">
-        <f>E33/SUM($E$29:$E$36)</f>
-        <v>0.16278714872024264</v>
-      </c>
-      <c r="G33" s="28">
-        <f>F33/SUM($F$33:$F$36)</f>
-        <v>0.68087999180973879</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+        <f>E33/SUM($E$29:$E$38)</f>
+        <v>0.16254402629520248</v>
+      </c>
+      <c r="G33" s="35">
+        <f>F33/SUM($F$33:$F$38)</f>
+        <v>0.67664681407729454</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="19">
         <f>H21</f>
-        <v>1256.04</v>
+        <v>1320.0015409242919</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="19">
-        <f t="shared" si="1"/>
-        <v>1256.04</v>
+        <f>C34*D34</f>
+        <v>1320.0015409242919</v>
       </c>
       <c r="F34" s="21">
-        <f>E34/SUM($E$29:$E$36)</f>
-        <v>2.9372340760955632E-2</v>
-      </c>
-      <c r="G34" s="28">
-        <f>F34/SUM($F$33:$F$36)</f>
-        <v>0.12285391871517828</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+        <f>E34/SUM($E$29:$E$38)</f>
+        <v>3.0821972087386684E-2</v>
+      </c>
+      <c r="G34" s="35">
+        <f>F34/SUM($F$33:$F$38)</f>
+        <v>0.12830732504824791</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="82">
+        <f>G34/2</f>
+        <v>6.4153662524123953E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="82">
+        <f>G34/2</f>
+        <v>6.4153662524123953E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C37" s="19">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D37" s="11">
         <v>0.8</v>
       </c>
-      <c r="E35" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="21">
-        <f>E35/SUM($E$29:$E$36)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="28">
-        <f>F35/SUM($F$33:$F$36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+      <c r="E37" s="19">
+        <f>C37*D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <f>E37/SUM($E$29:$E$38)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <f>F37/SUM($F$33:$F$38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C38" s="20">
         <f>E21</f>
         <v>2360.7000000000003</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D38" s="22">
         <v>0.85</v>
       </c>
-      <c r="E36" s="20">
-        <f t="shared" si="1"/>
+      <c r="E38" s="20">
+        <f>C38*D38</f>
         <v>2006.5950000000003</v>
       </c>
-      <c r="F36" s="25">
-        <f>E36/SUM($E$29:$E$36)</f>
-        <v>4.6923977030373057E-2</v>
-      </c>
-      <c r="G36" s="29">
-        <f>F36/SUM($F$33:$F$36)</f>
-        <v>0.19626608947508298</v>
-      </c>
+      <c r="F38" s="23">
+        <f>E38/SUM($E$29:$E$38)</f>
+        <v>4.6853896123017415E-2</v>
+      </c>
+      <c r="G38" s="35">
+        <f>F38/SUM($F$33:$F$38)</f>
+        <v>0.19504586087445758</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17" thickBot="1">
+      <c r="B43" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="2:8" ht="17" thickBot="1">
+      <c r="B44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="79">
+        <v>0</v>
+      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="2:8" ht="17" thickBot="1">
+      <c r="B45" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="80">
+        <f>H35</f>
+        <v>6.4153662524123953E-2</v>
+      </c>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="2:8" ht="17" thickBot="1">
+      <c r="B46" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="79">
+        <f>1-D45</f>
+        <v>0.93584633747587609</v>
+      </c>
+      <c r="E46" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:D8 G8:I8">
@@ -1696,14 +2697,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="C23:K24 C21:G21 I21:K21 C22:G22 I22:K22" emptyCellReference="1"/>
-  </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1712,11 +2705,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:N43"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
@@ -1727,42 +2720,53 @@
     <col min="11" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>36536</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
+      <c r="K4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
       </c>
       <c r="G5">
         <v>41868</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>110</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1778,165 +2782,165 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="33">
+        <f>'HRE, 2015'!O50</f>
+        <v>265.74634654228379</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="31">
+        <f>G7/$D$3</f>
+        <v>7.2735479128061033E-3</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D7">
-        <v>0.03</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <f>D7*G5</f>
-        <v>1256.04</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="30">
-        <f>G7/$D$3</f>
-        <v>3.4378147580468581E-2</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>0.03</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <f>D8*G5</f>
-        <v>1256.04</v>
+      <c r="G8" s="33">
+        <f>'HRE, 2015'!N50</f>
+        <v>1320.0015409242919</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="30">
+        <v>27</v>
+      </c>
+      <c r="I8" s="31">
         <f>G8/$D$3</f>
-        <v>3.4378147580468581E-2</v>
+        <v>3.6128791901803479E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0.18</v>
       </c>
       <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="33">
         <f>D9*G5</f>
         <v>7536.24</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="30">
+        <v>27</v>
+      </c>
+      <c r="I9" s="31">
         <f>G9/$D$3</f>
         <v>0.20626888548281147</v>
       </c>
+      <c r="L9" s="78" t="s">
+        <v>113</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="31">
+      <c r="G10">
+        <f>D3-SUM(G7:G9)</f>
+        <v>27414.012112533426</v>
+      </c>
+      <c r="I10" s="32">
         <f>1-SUM(I7:I9)</f>
-        <v>0.7249748193562513</v>
+        <v>0.75032877470257897</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
+    <row r="28" spans="2:14">
+      <c r="B28" s="25"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1950,15 +2954,18 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L9" r:id="rId1" xr:uid="{C0076A21-C898-A24C-994A-644FC3E6815A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1972,96 +2979,96 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="A18:G26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <f>Electricity!G9</f>
         <v>7536.24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1">
+      <c r="B9" s="28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="30">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1">
+      <c r="B11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="35">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="30">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17" thickBot="1">
+      <c r="B12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="30">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="36">
-        <v>0.91910000000000003</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="36">
-        <v>6.5299999999999997E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="36">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2071,89 +3078,2926 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B80DFE-7889-0948-ACFE-11F963DE8395}">
-  <dimension ref="C6:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED7097C-17FF-EE43-8635-D35D7B37D3AF}">
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="6" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="36">
-        <v>0.49790000000000001</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="2" spans="2:6" ht="17" thickBot="1"/>
+    <row r="3" spans="2:6" ht="17" thickBot="1">
+      <c r="B3" s="26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="36">
-        <v>0.1</v>
-      </c>
+      <c r="C3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2756.2910000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="36">
-        <v>0.2586</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10">
+        <v>1019158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="36">
-        <v>0.14349999999999999</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>893133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>844000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D10:D12)</f>
+        <v>2756291</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>2756291</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83">
+        <f>D13-D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139AFF8F-08F4-394B-91B1-050FEC1DADEB}">
+  <dimension ref="A6:AE50"/>
+  <sheetViews>
+    <sheetView topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:31" s="39" customFormat="1" ht="45">
+      <c r="F6" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:31" s="39" customFormat="1" ht="15" thickBot="1">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:31" s="39" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A9" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="76"/>
+    </row>
+    <row r="10" spans="1:31" s="68" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD10" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE10" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A11" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B11" s="39" t="str">
+        <f t="shared" ref="B11:B25" si="0">E11&amp;"300_"&amp;K11</f>
+        <v>DK300_1</v>
+      </c>
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K11" s="43">
+        <v>1</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="45">
+        <v>15.217835953454628</v>
+      </c>
+      <c r="N11" s="46">
+        <v>13.3881011066351</v>
+      </c>
+      <c r="O11" s="46">
+        <v>0.8349489293051654</v>
+      </c>
+      <c r="P11" s="46">
+        <v>11.553283467109555</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>0.99986871022038026</v>
+      </c>
+      <c r="R11" s="47">
+        <v>0.9231404654908566</v>
+      </c>
+      <c r="S11" s="46">
+        <v>12.359097887617779</v>
+      </c>
+      <c r="T11" s="46">
+        <v>0.77801504964000423</v>
+      </c>
+      <c r="U11" s="46">
+        <v>10.670782366818937</v>
+      </c>
+      <c r="V11" s="46">
+        <v>0.91030047115883772</v>
+      </c>
+      <c r="W11" s="46">
+        <v>1.8297348468195294</v>
+      </c>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46">
+        <v>7.3818429595078824E-2</v>
+      </c>
+      <c r="Z11" s="46">
+        <v>1.7559164172244506</v>
+      </c>
+      <c r="AA11" s="46">
+        <v>3.0363094066613261</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>5.5556411270941579</v>
+      </c>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="46">
+        <v>0.28789187542080746</v>
+      </c>
+      <c r="AE11" s="46">
+        <v>5.2677492516733508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A12" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_2</v>
+      </c>
+      <c r="C12" s="40">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="39" t="str">
+        <f t="shared" ref="E12:E26" si="1">E11</f>
+        <v>DK</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K12" s="43">
+        <v>2</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="45">
+        <v>1.88896594057102</v>
+      </c>
+      <c r="N12" s="46">
+        <v>1.88896594057102</v>
+      </c>
+      <c r="O12" s="46">
+        <v>0.12615927752898629</v>
+      </c>
+      <c r="P12" s="46">
+        <v>1.7628066630420336</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>0</v>
+      </c>
+      <c r="R12" s="47">
+        <v>0.83455441332159452</v>
+      </c>
+      <c r="S12" s="46">
+        <v>1.5764448623177216</v>
+      </c>
+      <c r="T12" s="46">
+        <v>0.10565818671466667</v>
+      </c>
+      <c r="U12" s="46">
+        <v>1.470786675603055</v>
+      </c>
+      <c r="V12" s="46">
+        <v>0</v>
+      </c>
+      <c r="W12" s="46">
+        <v>0</v>
+      </c>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A13" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_3</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K13" s="43">
+        <v>3</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="45">
+        <v>0.66411366632444302</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0.66411366632444302</v>
+      </c>
+      <c r="O13" s="46">
+        <v>4.1843750523366578E-2</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0.62226991580107649</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>0</v>
+      </c>
+      <c r="R13" s="47">
+        <v>0.75727697764080693</v>
+      </c>
+      <c r="S13" s="46">
+        <v>0.50291799004412951</v>
+      </c>
+      <c r="T13" s="46">
+        <v>3.1689529656569446E-2</v>
+      </c>
+      <c r="U13" s="46">
+        <v>0.47122846038756006</v>
+      </c>
+      <c r="V13" s="46">
+        <v>0</v>
+      </c>
+      <c r="W13" s="46">
+        <v>0</v>
+      </c>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A14" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_5</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K14" s="43">
+        <v>5</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="45">
+        <v>4.0957942001514109E-3</v>
+      </c>
+      <c r="N14" s="46">
+        <v>4.0957942001514109E-3</v>
+      </c>
+      <c r="O14" s="46">
+        <v>2.7453963776975234E-4</v>
+      </c>
+      <c r="P14" s="46">
+        <v>3.8212545623816582E-3</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>0</v>
+      </c>
+      <c r="R14" s="47">
+        <v>0.64824704817681733</v>
+      </c>
+      <c r="S14" s="46">
+        <v>2.6550865001878808E-3</v>
+      </c>
+      <c r="T14" s="46">
+        <v>1.7768115074835879E-4</v>
+      </c>
+      <c r="U14" s="46">
+        <v>2.4774053494395218E-3</v>
+      </c>
+      <c r="V14" s="46">
+        <v>0</v>
+      </c>
+      <c r="W14" s="46">
+        <v>0</v>
+      </c>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A15" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_6</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K15" s="43">
+        <v>6</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="45">
+        <v>3.1306862668729805</v>
+      </c>
+      <c r="N15" s="46">
+        <v>1.3009514200534513</v>
+      </c>
+      <c r="O15" s="46">
+        <v>1.9176743815706037E-2</v>
+      </c>
+      <c r="P15" s="46">
+        <v>0.28190596601736506</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>0.99986871022038026</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0.93036382015862062</v>
+      </c>
+      <c r="S15" s="46">
+        <v>1.2103581330017112</v>
+      </c>
+      <c r="T15" s="46">
+        <v>2.3789815145856357E-2</v>
+      </c>
+      <c r="U15" s="46">
+        <v>0.27626784669701726</v>
+      </c>
+      <c r="V15" s="46">
+        <v>0.91030047115883772</v>
+      </c>
+      <c r="W15" s="46">
+        <v>1.8297348468195294</v>
+      </c>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46">
+        <v>7.3818429595078824E-2</v>
+      </c>
+      <c r="Z15" s="46">
+        <v>1.7559164172244506</v>
+      </c>
+      <c r="AA15" s="46">
+        <v>3.0363094066613261</v>
+      </c>
+      <c r="AB15" s="46">
+        <v>5.5556411270941579</v>
+      </c>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="46">
+        <v>0.28789187542080746</v>
+      </c>
+      <c r="AE15" s="46">
+        <v>5.2677492516733508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A16" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_7</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K16" s="43">
+        <v>7</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="45">
+        <v>8.7527124877664253</v>
+      </c>
+      <c r="N16" s="46">
+        <v>8.7527124877664253</v>
+      </c>
+      <c r="O16" s="46">
+        <v>0.59128185725155757</v>
+      </c>
+      <c r="P16" s="46">
+        <v>8.1614306305148681</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0.9558413555437083</v>
+      </c>
+      <c r="S16" s="46">
+        <v>8.3662045689910034</v>
+      </c>
+      <c r="T16" s="46">
+        <v>0.5653995580068909</v>
+      </c>
+      <c r="U16" s="46">
+        <v>7.8008050109841127</v>
+      </c>
+      <c r="V16" s="46">
+        <v>0</v>
+      </c>
+      <c r="W16" s="46">
+        <v>0</v>
+      </c>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A17" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_8</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K17" s="43">
+        <v>8</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="45">
+        <v>0</v>
+      </c>
+      <c r="N17" s="46">
+        <v>0</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0</v>
+      </c>
+      <c r="U17" s="46">
+        <v>0</v>
+      </c>
+      <c r="V17" s="46">
+        <v>0</v>
+      </c>
+      <c r="W17" s="46">
+        <v>0</v>
+      </c>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A18" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_9</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K18" s="43">
+        <v>9</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="45">
+        <v>0</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>0</v>
+      </c>
+      <c r="R18" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0</v>
+      </c>
+      <c r="U18" s="46">
+        <v>0</v>
+      </c>
+      <c r="V18" s="46">
+        <v>0</v>
+      </c>
+      <c r="W18" s="46">
+        <v>0</v>
+      </c>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A19" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_4</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K19" s="43">
+        <v>4</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="45">
+        <v>0.59278279697971437</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0.59278279697971437</v>
+      </c>
+      <c r="O19" s="46">
+        <v>4.2119870054477142E-2</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0.55066292692523722</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0</v>
+      </c>
+      <c r="R19" s="47">
+        <v>0.75685904177218633</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.44865301970110311</v>
+      </c>
+      <c r="T19" s="46">
+        <v>3.1966397310819197E-2</v>
+      </c>
+      <c r="U19" s="46">
+        <v>0.41668662239028392</v>
+      </c>
+      <c r="V19" s="46">
+        <v>0</v>
+      </c>
+      <c r="W19" s="46">
+        <v>0</v>
+      </c>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A20" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_10</v>
+      </c>
+      <c r="C20" s="40">
+        <v>1</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="43">
+        <v>10</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="45">
+        <v>0.11889461587177322</v>
+      </c>
+      <c r="N20" s="46">
+        <v>0.11889461587177322</v>
+      </c>
+      <c r="O20" s="46">
+        <v>9.0962842869272958E-3</v>
+      </c>
+      <c r="P20" s="46">
+        <v>0.10979833158484592</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>0</v>
+      </c>
+      <c r="R20" s="47">
+        <v>0.96035629734060446</v>
+      </c>
+      <c r="S20" s="46">
+        <v>0.11418119307234958</v>
+      </c>
+      <c r="T20" s="46">
+        <v>8.7596112626724745E-3</v>
+      </c>
+      <c r="U20" s="46">
+        <v>0.10542158180967712</v>
+      </c>
+      <c r="V20" s="46">
+        <v>0</v>
+      </c>
+      <c r="W20" s="46">
+        <v>0</v>
+      </c>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A21" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B21" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_11</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K21" s="43">
+        <v>11</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="45">
+        <v>6.5584384868121098E-2</v>
+      </c>
+      <c r="N21" s="46">
+        <v>6.5584384868121098E-2</v>
+      </c>
+      <c r="O21" s="46">
+        <v>4.9966062063747452E-3</v>
+      </c>
+      <c r="P21" s="46">
+        <v>6.0587778661746354E-2</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>0</v>
+      </c>
+      <c r="R21" s="47">
+        <v>2.0993264519661423</v>
+      </c>
+      <c r="S21" s="46">
+        <v>0.13768303398957463</v>
+      </c>
+      <c r="T21" s="46">
+        <v>1.0574270391780953E-2</v>
+      </c>
+      <c r="U21" s="46">
+        <v>0.12710876359779366</v>
+      </c>
+      <c r="V21" s="46">
+        <v>0</v>
+      </c>
+      <c r="W21" s="46">
+        <v>0</v>
+      </c>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A22" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B22" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_12</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K22" s="43">
+        <v>12</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="45">
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="46">
+        <v>0</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="46">
+        <v>0</v>
+      </c>
+      <c r="T22" s="46">
+        <v>0</v>
+      </c>
+      <c r="U22" s="46">
+        <v>0</v>
+      </c>
+      <c r="V22" s="46">
+        <v>0</v>
+      </c>
+      <c r="W22" s="46">
+        <v>0</v>
+      </c>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A23" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B23" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_13</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K23" s="43">
+        <v>13</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="45">
+        <v>0</v>
+      </c>
+      <c r="N23" s="46">
+        <v>0</v>
+      </c>
+      <c r="O23" s="46">
+        <v>0</v>
+      </c>
+      <c r="P23" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="46">
+        <v>0</v>
+      </c>
+      <c r="R23" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="46">
+        <v>0</v>
+      </c>
+      <c r="T23" s="46">
+        <v>0</v>
+      </c>
+      <c r="U23" s="46">
+        <v>0</v>
+      </c>
+      <c r="V23" s="46">
+        <v>0</v>
+      </c>
+      <c r="W23" s="46">
+        <v>0</v>
+      </c>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB23" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A24" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_14</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K24" s="43">
+        <v>14</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="45">
+        <v>0</v>
+      </c>
+      <c r="N24" s="46">
+        <v>0</v>
+      </c>
+      <c r="O24" s="46">
+        <v>0</v>
+      </c>
+      <c r="P24" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>0</v>
+      </c>
+      <c r="R24" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="46">
+        <v>0</v>
+      </c>
+      <c r="T24" s="46">
+        <v>0</v>
+      </c>
+      <c r="U24" s="46">
+        <v>0</v>
+      </c>
+      <c r="V24" s="46">
+        <v>0</v>
+      </c>
+      <c r="W24" s="46">
+        <v>0</v>
+      </c>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB24" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A25" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>DK300_15</v>
+      </c>
+      <c r="C25" s="40">
+        <v>1</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K25" s="43">
+        <v>15</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="45">
+        <v>0</v>
+      </c>
+      <c r="N25" s="46">
+        <v>0</v>
+      </c>
+      <c r="O25" s="46">
+        <v>0</v>
+      </c>
+      <c r="P25" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>0</v>
+      </c>
+      <c r="R25" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="46">
+        <v>0</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0</v>
+      </c>
+      <c r="U25" s="46">
+        <v>0</v>
+      </c>
+      <c r="V25" s="46">
+        <v>0</v>
+      </c>
+      <c r="W25" s="46">
+        <v>0</v>
+      </c>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="39" customFormat="1" ht="14">
+      <c r="A26" s="38" t="e">
+        <f>IF([1]!Tertiary[[#This Row],[ID energy carrier]]=13," ",IF([1]!Tertiary[[#This Row],[Sub-sector]]="Total",[1]!Tertiary[[#This Row],[ID country]]&amp;"500_"&amp;[1]!Tertiary[[#This Row],[ID energy carrier]]," "))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" s="39" t="str">
+        <f t="shared" ref="B26" si="2">E26&amp;"300_"&amp;K26</f>
+        <v>DK300_16</v>
+      </c>
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>DK</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="40">
+        <v>2015</v>
+      </c>
+      <c r="K26" s="43">
+        <v>16</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="45">
+        <v>0</v>
+      </c>
+      <c r="N26" s="46">
+        <v>0</v>
+      </c>
+      <c r="O26" s="46">
+        <v>0</v>
+      </c>
+      <c r="P26" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>0</v>
+      </c>
+      <c r="R26" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="46">
+        <v>0</v>
+      </c>
+      <c r="T26" s="46">
+        <v>0</v>
+      </c>
+      <c r="U26" s="46">
+        <v>0</v>
+      </c>
+      <c r="V26" s="46">
+        <v>0</v>
+      </c>
+      <c r="W26" s="46">
+        <v>0</v>
+      </c>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB26" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="L31" s="57"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="L32" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <f>M11*3600</f>
+        <v>54784.209432436663</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:Q32" si="3">N11*3600</f>
+        <v>48197.163983886356</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>3005.8161454985952</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>41591.820481594397</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>3599.5273567933691</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32:Z41" si="4">S11*3600</f>
+        <v>44492.752395424002</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
+        <v>2800.8541787040153</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>38414.816520548171</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="4"/>
+        <v>3277.081696171816</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>6587.045448550306</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>265.74634654228379</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="4"/>
+        <v>6321.2991020080217</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" ref="AB32:AB47" si="5">AB11*3600</f>
+        <v>20000.308057538969</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" ref="AD32:AE32" si="6">AD11*3600</f>
+        <v>1036.4107515149069</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>18963.897306024064</v>
+      </c>
+    </row>
+    <row r="33" spans="12:31">
+      <c r="L33" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:Q47" si="7">M12*3600</f>
+        <v>6800.2773860556717</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>6800.2773860556717</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>454.17339910435061</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="7"/>
+        <v>6346.1039869513206</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>5675.2015043437978</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="4"/>
+        <v>380.36947217280004</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>5294.832032170998</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" ref="AD33:AE33" si="8">AD12*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="12:31">
+      <c r="L34" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>2390.809198767995</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>2390.809198767995</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>150.63750188411967</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="7"/>
+        <v>2240.1716968838755</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>1810.5047641588662</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>114.08230676365001</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>1696.4224573952163</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" ref="AD34:AE34" si="9">AD13*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="12:31">
+      <c r="L35" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>14.74485912054508</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>14.74485912054508</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>0.98834269597110846</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="7"/>
+        <v>13.75651642457397</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>9.5583114006763701</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>0.63965214269409165</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>8.918659257982279</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" ref="AD35:AE35" si="10">AD14*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:31">
+      <c r="L36" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>11270.47056074273</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>4683.4251121924244</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>69.036277736541734</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>1014.8614776625142</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>3599.5273567933691</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>4357.2892788061608</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>85.643334525082892</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>994.56424810926217</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="4"/>
+        <v>3277.081696171816</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>6587.045448550306</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="4"/>
+        <v>265.74634654228379</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="4"/>
+        <v>6321.2991020080217</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="5"/>
+        <v>20000.308057538969</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" ref="AD36:AE36" si="11">AD15*3600</f>
+        <v>1036.4107515149069</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="11"/>
+        <v>18963.897306024064</v>
+      </c>
+    </row>
+    <row r="37" spans="12:31">
+      <c r="L37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>31509.76495595913</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>31509.76495595913</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>2128.6146861056072</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="7"/>
+        <v>29381.150269853526</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>30118.336448367612</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="4"/>
+        <v>2035.4384088248073</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>28082.898039542804</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" ref="AD37:AE37" si="12">AD16*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:31">
+      <c r="L38" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ref="AD38:AE38" si="13">AD17*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="12:31">
+      <c r="L39" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" ref="AD39:AE39" si="14">AD18*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:31">
+      <c r="L40" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>2134.0180691269716</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>2134.0180691269716</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>151.63153219611772</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>1982.3865369308539</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>1615.1508709239711</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="4"/>
+        <v>115.07903031894911</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>1500.0718406050221</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" ref="AD40:AE40" si="15">AD19*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="12:31">
+      <c r="L41" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>428.02061713838361</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>428.02061713838361</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>32.746623432938264</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>395.27399370544532</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>411.0522950604585</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="4"/>
+        <v>31.534600545620908</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>379.51769451483761</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" ref="AD41:AE41" si="16">AD20*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:31">
+      <c r="L42" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>236.10378552523596</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>236.10378552523596</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>17.987782342949082</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>218.11600318228687</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:Z51" si="17">S21*3600</f>
+        <v>495.65892236246867</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="17"/>
+        <v>38.067373410411435</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="17"/>
+        <v>457.59154895205717</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" ref="AD42:AE42" si="18">AD21*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="12:31">
+      <c r="L43" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" ref="AD43:AE43" si="19">AD22*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="12:31">
+      <c r="L44" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" ref="AD44:AE44" si="20">AD23*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="12:31">
+      <c r="L45" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" ref="AD45:AE45" si="21">AD24*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="12:31">
+      <c r="L46" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" ref="AD46:AE46" si="22">AD25*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="12:31">
+      <c r="L47" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" ref="AD47:AE47" si="23">AD26*3600</f>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15">
+      <c r="N49" t="s">
+        <v>114</v>
+      </c>
+      <c r="O49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15">
+      <c r="L50" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50">
+        <f>SUM(O36:P36,O42:P42)</f>
+        <v>1320.0015409242919</v>
+      </c>
+      <c r="O50">
+        <f>Y36</f>
+        <v>265.74634654228379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>